--- a/data/trans_dic/P1424_2016_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P1424_2016_2023-Provincia-trans_dic.xlsx
@@ -612,7 +612,7 @@
         <v>0.01749407722480074</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.003255057850909572</v>
+        <v>0.003255057850909573</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.09934871615432588</v>
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.006015989330287055</v>
+        <v>0.004925652651359327</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.06855647399333449</v>
+        <v>0.06754038016770764</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.009647593894602464</v>
+        <v>0.0107150188049381</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.03965199583641297</v>
+        <v>0.03868178867043893</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.005945490307493096</v>
+        <v>0.006311172150036057</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.0459749215400883</v>
+        <v>0.0420717020883945</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.01673472696820496</v>
+        <v>0.01499116431534434</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1446810728012777</v>
+        <v>0.1464418295548412</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.03141393250645592</v>
+        <v>0.03303696030912529</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.07982906417844525</v>
+        <v>0.0787742601750686</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.01978781016462502</v>
+        <v>0.01848256357791371</v>
       </c>
     </row>
     <row r="7">
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01035212338821358</v>
+        <v>0.01049820594179951</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02235435272879261</v>
+        <v>0.02286668005722303</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.04773733500537031</v>
+        <v>0.04582843585090493</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.08579033369341552</v>
+        <v>0.08352334320403436</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.03267247436868489</v>
+        <v>0.03300118207849136</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.05890003086510723</v>
+        <v>0.05818780997268867</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.03688723231681477</v>
+        <v>0.03704580957659721</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.06045286049382594</v>
+        <v>0.05984012786708272</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.09475598247763115</v>
+        <v>0.09260253822701954</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.129279493969186</v>
+        <v>0.1293968874188239</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.05879025401701141</v>
+        <v>0.05908721818427427</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.08871108815045047</v>
+        <v>0.08891459271477066</v>
       </c>
     </row>
     <row r="10">
@@ -788,7 +788,7 @@
         <v>0.0280430661139194</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.09117596591882426</v>
+        <v>0.09117596591882425</v>
       </c>
     </row>
     <row r="11">
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.003123140653708415</v>
+        <v>0.003905289956443372</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.05339628898437712</v>
+        <v>0.05301529789973423</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.02372221846737957</v>
+        <v>0.0227568972700594</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.07846294339223742</v>
+        <v>0.0803679521045034</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.017417152671291</v>
+        <v>0.01741135994172683</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.07433321139151994</v>
+        <v>0.07460870490288303</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.03277086525869032</v>
+        <v>0.0328668620180099</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1097580332219792</v>
+        <v>0.1107422042849155</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.07062055924812638</v>
+        <v>0.07101485137654336</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1320120411743893</v>
+        <v>0.1288684447486479</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.04272144307845559</v>
+        <v>0.04357925772254416</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1154306765029987</v>
+        <v>0.1132251097892</v>
       </c>
     </row>
     <row r="13">
@@ -864,13 +864,13 @@
         <v>0.03494081268069738</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.07530097933636989</v>
+        <v>0.07530097933636991</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.02883561164164084</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.06323566277219934</v>
+        <v>0.06323566277219933</v>
       </c>
     </row>
     <row r="14">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01045850853557639</v>
+        <v>0.01051632960802797</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02916648173546006</v>
+        <v>0.02754789813309751</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01900580529606121</v>
+        <v>0.01945617608527526</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.05569782346385235</v>
+        <v>0.05776083218664622</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.01852237330954303</v>
+        <v>0.01823246404927</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.04974623583009419</v>
+        <v>0.04730306211877471</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.04105777931984699</v>
+        <v>0.0418229812646611</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.07942330312932576</v>
+        <v>0.07840124714206256</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.05675932483979659</v>
+        <v>0.05726123990043121</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.09903123860459337</v>
+        <v>0.1007507497847553</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.04399607907858711</v>
+        <v>0.04359348086125085</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.08369058957948358</v>
+        <v>0.08186197580379508</v>
       </c>
     </row>
     <row r="16">
@@ -946,13 +946,13 @@
         <v>0.08505905520131736</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.06290988740724944</v>
+        <v>0.06290988740724943</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.0568088235777083</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.03588513765635903</v>
+        <v>0.03588513765635902</v>
       </c>
     </row>
     <row r="17">
@@ -963,22 +963,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.00932849333884367</v>
+        <v>0.009646568835617594</v>
       </c>
       <c r="D17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.05264011686601942</v>
+        <v>0.05278990436900296</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.04216616926744458</v>
+        <v>0.04376658742805396</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.03750282124792439</v>
+        <v>0.03794069454601517</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.02478357945150756</v>
+        <v>0.02350219940682887</v>
       </c>
     </row>
     <row r="18">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.05554789483872836</v>
+        <v>0.06036843098992004</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.02293246212992751</v>
+        <v>0.02002100292673514</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1279957115404814</v>
+        <v>0.1277816033792294</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.09480439486466473</v>
+        <v>0.09191957567209583</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.07958271153830929</v>
+        <v>0.08213747042462004</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.05466836611331545</v>
+        <v>0.05427363358910706</v>
       </c>
     </row>
     <row r="19">
@@ -1045,22 +1045,22 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.004016312859168237</v>
+        <v>0.004345647512957507</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.05771313507995211</v>
+        <v>0.06151856531266572</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.03319849467195381</v>
+        <v>0.03255515627999406</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1012950447925231</v>
+        <v>0.1057053014651357</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.02112795104225721</v>
+        <v>0.02142775420650289</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.09163337183425933</v>
+        <v>0.09152957852474157</v>
       </c>
     </row>
     <row r="21">
@@ -1071,22 +1071,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.03886477185618743</v>
+        <v>0.03560008984335186</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1171712349331054</v>
+        <v>0.1246654010416186</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.08724091285825661</v>
+        <v>0.08755240338989864</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1660734140599278</v>
+        <v>0.1685407968292398</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.0547548305111587</v>
+        <v>0.05298632304903052</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.1327215864671675</v>
+        <v>0.132449572864634</v>
       </c>
     </row>
     <row r="22">
@@ -1116,7 +1116,7 @@
         <v>0.04092146187240808</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>0.09417007647177095</v>
+        <v>0.09417007647177092</v>
       </c>
     </row>
     <row r="23">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.004532953250931448</v>
+        <v>0.004413295083079012</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.03847524424825031</v>
+        <v>0.03774917383599567</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.05084394184104062</v>
+        <v>0.05176384321360743</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1106230623603553</v>
+        <v>0.1069134748907935</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.02992523361737719</v>
+        <v>0.03053960793037382</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.07995274659619871</v>
+        <v>0.07936785886742971</v>
       </c>
     </row>
     <row r="24">
@@ -1153,22 +1153,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.02265769511572956</v>
+        <v>0.02030002139733432</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.0781554132522347</v>
+        <v>0.07674684938915141</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.0916003087384178</v>
+        <v>0.09318363830630644</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.1572309609936827</v>
+        <v>0.1545138374389878</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.05362642501582073</v>
+        <v>0.0533926453619642</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.1120244930361794</v>
+        <v>0.1100184305785381</v>
       </c>
     </row>
     <row r="25">
@@ -1192,7 +1192,7 @@
         <v>0.07185059059189819</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.0716053176356365</v>
+        <v>0.07160531763563652</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>0.04914546152448101</v>
@@ -1209,22 +1209,22 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.01505030472061674</v>
+        <v>0.01560464304293737</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.01858531626978799</v>
+        <v>0.01848976943699864</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.05487262396354153</v>
+        <v>0.05279820502965227</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.05817767019737493</v>
+        <v>0.05536001497570095</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.0389144208602239</v>
+        <v>0.03786182851847086</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.04127195138716416</v>
+        <v>0.04109916835336495</v>
       </c>
     </row>
     <row r="27">
@@ -1235,22 +1235,22 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.03856880854237017</v>
+        <v>0.03815117758863275</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.04447428452104205</v>
+        <v>0.04314594591247128</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.0921139507614553</v>
+        <v>0.09292227562520156</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.08913851877575799</v>
+        <v>0.087533963730345</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.06179166567449175</v>
+        <v>0.06047373074680835</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.06095930266715284</v>
+        <v>0.06167579648593779</v>
       </c>
     </row>
     <row r="28">
@@ -1274,7 +1274,7 @@
         <v>0.06553873947657765</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>0.09172031521585312</v>
+        <v>0.09172031521585314</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>0.04279951865960667</v>
@@ -1291,22 +1291,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.01528863965427827</v>
+        <v>0.01459986068586912</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.03616105996014975</v>
+        <v>0.03609592444890117</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.05765423157027663</v>
+        <v>0.05781050143986246</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.08304617485220098</v>
+        <v>0.08409566764212952</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.03810540303391841</v>
+        <v>0.0378375865786657</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.06272385470329021</v>
+        <v>0.06288982542300814</v>
       </c>
     </row>
     <row r="30">
@@ -1317,22 +1317,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.02470115862377712</v>
+        <v>0.02458572784659229</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.05031459263380577</v>
+        <v>0.04951473505714396</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.07513470468304569</v>
+        <v>0.07463086378288121</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.1003626766211344</v>
+        <v>0.09981279560165233</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.04796679554060271</v>
+        <v>0.04798867483148148</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.07399701912572211</v>
+        <v>0.07345904241041243</v>
       </c>
     </row>
     <row r="31">
@@ -1523,22 +1523,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>1767</v>
+        <v>1447</v>
       </c>
       <c r="D6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>19792</v>
+        <v>19499</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>3049</v>
+        <v>3387</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>23096</v>
+        <v>22531</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>3775</v>
+        <v>4007</v>
       </c>
     </row>
     <row r="7">
@@ -1549,22 +1549,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>13506</v>
+        <v>12359</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>5336</v>
+        <v>4780</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>41770</v>
+        <v>42278</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>9929</v>
+        <v>10442</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>46498</v>
+        <v>45883</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>12563</v>
+        <v>11735</v>
       </c>
     </row>
     <row r="8">
@@ -1631,22 +1631,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>5203</v>
+        <v>5276</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>11840</v>
+        <v>12112</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>24971</v>
+        <v>23972</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>46759</v>
+        <v>45524</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>33511</v>
+        <v>33848</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>63300</v>
+        <v>62534</v>
       </c>
     </row>
     <row r="11">
@@ -1657,22 +1657,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>18539</v>
+        <v>18618</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>32019</v>
+        <v>31695</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>49565</v>
+        <v>48439</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>70463</v>
+        <v>70527</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>60299</v>
+        <v>60603</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>95338</v>
+        <v>95557</v>
       </c>
     </row>
     <row r="12">
@@ -1739,22 +1739,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>995</v>
+        <v>1244</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>16873</v>
+        <v>16752</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>7978</v>
+        <v>7653</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>27963</v>
+        <v>28642</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>11406</v>
+        <v>11402</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>49980</v>
+        <v>50165</v>
       </c>
     </row>
     <row r="15">
@@ -1765,22 +1765,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>10440</v>
+        <v>10470</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>34683</v>
+        <v>34994</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>23750</v>
+        <v>23883</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>47047</v>
+        <v>45926</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>27977</v>
+        <v>28539</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>77613</v>
+        <v>76130</v>
       </c>
     </row>
     <row r="16">
@@ -1847,22 +1847,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>3869</v>
+        <v>3891</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>10883</v>
+        <v>10279</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>7361</v>
+        <v>7535</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>23502</v>
+        <v>24373</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>14026</v>
+        <v>13806</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>39554</v>
+        <v>37611</v>
       </c>
     </row>
     <row r="19">
@@ -1873,22 +1873,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>15190</v>
+        <v>15473</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>29636</v>
+        <v>29255</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>21982</v>
+        <v>22176</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>41787</v>
+        <v>42513</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>33316</v>
+        <v>33011</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>66543</v>
+        <v>65089</v>
       </c>
     </row>
     <row r="20">
@@ -1955,22 +1955,22 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>1970</v>
+        <v>2038</v>
       </c>
       <c r="D22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>11506</v>
+        <v>11539</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>9564</v>
+        <v>9927</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>16119</v>
+        <v>16307</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>10719</v>
+        <v>10164</v>
       </c>
     </row>
     <row r="23">
@@ -1981,22 +1981,22 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>11733</v>
+        <v>12751</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>4716</v>
+        <v>4118</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>27978</v>
+        <v>27931</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>21504</v>
+        <v>20849</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>34205</v>
+        <v>35303</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>23643</v>
+        <v>23473</v>
       </c>
     </row>
     <row r="24">
@@ -2063,22 +2063,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>1057</v>
+        <v>1143</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>15623</v>
+        <v>16654</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>9067</v>
+        <v>8891</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>26651</v>
+        <v>27811</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>11330</v>
+        <v>11490</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>48914</v>
+        <v>48859</v>
       </c>
     </row>
     <row r="27">
@@ -2089,22 +2089,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>10226</v>
+        <v>9367</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>31719</v>
+        <v>33748</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>23827</v>
+        <v>23912</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>43694</v>
+        <v>44343</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>29362</v>
+        <v>28413</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>70848</v>
+        <v>70702</v>
       </c>
     </row>
     <row r="28">
@@ -2171,22 +2171,22 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>2976</v>
+        <v>2898</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>27532</v>
+        <v>27013</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>35148</v>
+        <v>35784</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>85331</v>
+        <v>82470</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>40335</v>
+        <v>41163</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>118886</v>
+        <v>118017</v>
       </c>
     </row>
     <row r="31">
@@ -2197,22 +2197,22 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>14876</v>
+        <v>13328</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>55927</v>
+        <v>54919</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>63323</v>
+        <v>64417</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>121283</v>
+        <v>119187</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>72280</v>
+        <v>71965</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>166576</v>
+        <v>163593</v>
       </c>
     </row>
     <row r="32">
@@ -2279,22 +2279,22 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>11718</v>
+        <v>12150</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>14832</v>
+        <v>14756</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>45334</v>
+        <v>43620</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>48281</v>
+        <v>45942</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>62448</v>
+        <v>60759</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>67189</v>
+        <v>66908</v>
       </c>
     </row>
     <row r="35">
@@ -2305,22 +2305,22 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>30029</v>
+        <v>29704</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>35494</v>
+        <v>34434</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>76102</v>
+        <v>76769</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>73975</v>
+        <v>72643</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>99160</v>
+        <v>97045</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>99239</v>
+        <v>100405</v>
       </c>
     </row>
     <row r="36">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>51895</v>
+        <v>49557</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>127564</v>
+        <v>127335</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>204358</v>
+        <v>204912</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>309814</v>
+        <v>313729</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>264409</v>
+        <v>262551</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>455268</v>
+        <v>456473</v>
       </c>
     </row>
     <row r="39">
@@ -2413,22 +2413,22 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>83844</v>
+        <v>83453</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>177494</v>
+        <v>174672</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>266318</v>
+        <v>264532</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>374415</v>
+        <v>372364</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>332836</v>
+        <v>332988</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>537092</v>
+        <v>533187</v>
       </c>
     </row>
     <row r="40">
